--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H2">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I2">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J2">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>123.9375924280183</v>
+        <v>35.1292031583351</v>
       </c>
       <c r="R2">
-        <v>1115.438331852165</v>
+        <v>316.162828425016</v>
       </c>
       <c r="S2">
-        <v>0.007103151906679825</v>
+        <v>0.005408983049729347</v>
       </c>
       <c r="T2">
-        <v>0.01054699350876207</v>
+        <v>0.007775531432943737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H3">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I3">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J3">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>77.088000662534</v>
+        <v>68.70580645411866</v>
       </c>
       <c r="R3">
-        <v>693.792005962806</v>
+        <v>618.352258087068</v>
       </c>
       <c r="S3">
-        <v>0.004418092752658848</v>
+        <v>0.01057890612699926</v>
       </c>
       <c r="T3">
-        <v>0.006560129389824975</v>
+        <v>0.01520740892703662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H4">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I4">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J4">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>0.9718754017723331</v>
+        <v>526.4943800225433</v>
       </c>
       <c r="R4">
-        <v>8.746878615950999</v>
+        <v>3158.96628013526</v>
       </c>
       <c r="S4">
-        <v>5.570044147149123E-05</v>
+        <v>0.0810664325200898</v>
       </c>
       <c r="T4">
-        <v>8.270584697513494E-05</v>
+        <v>0.07768984649195268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H5">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I5">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J5">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>1859.90019661614</v>
+        <v>0.8423855976113332</v>
       </c>
       <c r="R5">
-        <v>11159.40117969684</v>
+        <v>7.581470378501999</v>
       </c>
       <c r="S5">
-        <v>0.1065952094841685</v>
+        <v>0.0001297054589675405</v>
       </c>
       <c r="T5">
-        <v>0.10551738132264</v>
+        <v>0.0001864544340320995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.052091</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H6">
-        <v>42.156273</v>
+        <v>71.222432</v>
       </c>
       <c r="I6">
-        <v>0.118199646824064</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J6">
-        <v>0.1227480314487644</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.4796915464366666</v>
+        <v>66.59110630956089</v>
       </c>
       <c r="R6">
-        <v>4.317223917929999</v>
+        <v>599.319956786048</v>
       </c>
       <c r="S6">
-        <v>2.74922390853182E-05</v>
+        <v>0.01025329733975698</v>
       </c>
       <c r="T6">
-        <v>4.082138056226929E-05</v>
+        <v>0.01473933917404086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J7">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>209.3908242065955</v>
+        <v>130.2390959751893</v>
       </c>
       <c r="R7">
-        <v>1884.51741785936</v>
+        <v>1172.151863776704</v>
       </c>
       <c r="S7">
-        <v>0.01200067552601659</v>
+        <v>0.02005343131088715</v>
       </c>
       <c r="T7">
-        <v>0.01781899761352831</v>
+        <v>0.02882724609462092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J8">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>130.2390959751893</v>
+        <v>998.0255764255467</v>
       </c>
       <c r="R8">
-        <v>1172.151863776704</v>
+        <v>5988.15345855328</v>
       </c>
       <c r="S8">
-        <v>0.007464305742728671</v>
+        <v>0.1536699651782818</v>
       </c>
       <c r="T8">
-        <v>0.01108324659957513</v>
+        <v>0.1472692905558144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J9">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>1.641969860931555</v>
+        <v>1.596830666250667</v>
       </c>
       <c r="R9">
-        <v>14.777728748384</v>
+        <v>14.371475996256</v>
       </c>
       <c r="S9">
-        <v>9.410511467826541E-05</v>
+        <v>0.0002458703651235118</v>
       </c>
       <c r="T9">
-        <v>0.0001397303685311307</v>
+        <v>0.0003534440272544171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.74081066666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H10">
-        <v>71.222432</v>
+        <v>123.055588</v>
       </c>
       <c r="I10">
-        <v>0.1996966455822818</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J10">
-        <v>0.2073810776155066</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>3142.27529744576</v>
+        <v>115.0537479890258</v>
       </c>
       <c r="R10">
-        <v>18853.65178467456</v>
+        <v>1035.483731901232</v>
       </c>
       <c r="S10">
-        <v>0.1800911114464969</v>
+        <v>0.01771528291932844</v>
       </c>
       <c r="T10">
-        <v>0.178270135883924</v>
+        <v>0.02546610664450539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.74081066666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H11">
-        <v>71.222432</v>
+        <v>123.055588</v>
       </c>
       <c r="I11">
-        <v>0.1996966455822818</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J11">
-        <v>0.2073810776155066</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.8104321401244443</v>
+        <v>225.0224835879707</v>
       </c>
       <c r="R11">
-        <v>7.293889261119999</v>
+        <v>2025.202352291736</v>
       </c>
       <c r="S11">
-        <v>4.644775236135835E-05</v>
+        <v>0.03464760626790768</v>
       </c>
       <c r="T11">
-        <v>6.896714994805983E-05</v>
+        <v>0.04980669178208182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H12">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I12">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J12">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>290.6999203105556</v>
+        <v>1724.353138433753</v>
       </c>
       <c r="R12">
-        <v>2616.299282795</v>
+        <v>10346.11883060252</v>
       </c>
       <c r="S12">
-        <v>0.01666068908370041</v>
+        <v>0.265505507070483</v>
       </c>
       <c r="T12">
-        <v>0.02473833896921781</v>
+        <v>0.254446648826715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H13">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I13">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J13">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>180.8125784153333</v>
+        <v>2.758947301489334</v>
       </c>
       <c r="R13">
-        <v>1627.313205738</v>
+        <v>24.830525713404</v>
       </c>
       <c r="S13">
-        <v>0.01036278973926738</v>
+        <v>0.000424806082893216</v>
       </c>
       <c r="T13">
-        <v>0.01538701094227432</v>
+        <v>0.0006106680350213303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.95966666666666</v>
+        <v>14.087727</v>
       </c>
       <c r="H14">
-        <v>98.87899999999999</v>
+        <v>28.175454</v>
       </c>
       <c r="I14">
-        <v>0.2772413699455032</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J14">
-        <v>0.2879097637882357</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>2.279567452555555</v>
+        <v>39.514966000476</v>
       </c>
       <c r="R14">
-        <v>20.516107073</v>
+        <v>237.089796002856</v>
       </c>
       <c r="S14">
-        <v>0.0001306473167649232</v>
+        <v>0.00608427638804819</v>
       </c>
       <c r="T14">
-        <v>0.0001939894317283306</v>
+        <v>0.00583085358400267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.95966666666666</v>
+        <v>14.087727</v>
       </c>
       <c r="H15">
-        <v>98.87899999999999</v>
+        <v>28.175454</v>
       </c>
       <c r="I15">
-        <v>0.2772413699455032</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J15">
-        <v>0.2879097637882357</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>4362.46039922</v>
+        <v>77.283495268398</v>
       </c>
       <c r="R15">
-        <v>26174.76239532</v>
+        <v>463.700971610388</v>
       </c>
       <c r="S15">
-        <v>0.2500227598057613</v>
+        <v>0.01189964697025638</v>
       </c>
       <c r="T15">
-        <v>0.2474946764815125</v>
+        <v>0.01140400184994626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.95966666666666</v>
+        <v>14.087727</v>
       </c>
       <c r="H16">
-        <v>98.87899999999999</v>
+        <v>28.175454</v>
       </c>
       <c r="I16">
-        <v>0.2772413699455032</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J16">
-        <v>0.2879097637882357</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>1.125133154444444</v>
+        <v>592.225432278165</v>
       </c>
       <c r="R16">
-        <v>10.12619839</v>
+        <v>2368.90172911266</v>
       </c>
       <c r="S16">
-        <v>6.448400000913691E-05</v>
+        <v>0.09118730391842592</v>
       </c>
       <c r="T16">
-        <v>9.574796350276567E-05</v>
+        <v>0.0582594416555164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H17">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I17">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J17">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>116.5603326288242</v>
+        <v>0.9475546057470001</v>
       </c>
       <c r="R17">
-        <v>699.361995772945</v>
+        <v>5.685327634482</v>
       </c>
       <c r="S17">
-        <v>0.006680343975832267</v>
+        <v>0.000145898749199565</v>
       </c>
       <c r="T17">
-        <v>0.006612796260501598</v>
+        <v>0.0001398217619342397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2156545</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H18">
-        <v>26.431309</v>
+        <v>112.4972</v>
       </c>
       <c r="I18">
-        <v>0.1111639324317536</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J18">
-        <v>0.07696105270890552</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.485874</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N18">
-        <v>16.457622</v>
+        <v>8.414764</v>
       </c>
       <c r="O18">
-        <v>0.03737822295894862</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P18">
-        <v>0.05344386636915803</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q18">
-        <v>72.49941541453299</v>
+        <v>105.1819320734222</v>
       </c>
       <c r="R18">
-        <v>434.996492487198</v>
+        <v>946.6373886608001</v>
       </c>
       <c r="S18">
-        <v>0.004155110251427585</v>
+        <v>0.0161952801820936</v>
       </c>
       <c r="T18">
-        <v>0.004113096216604474</v>
+        <v>0.0232810694660063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2156545</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H19">
-        <v>26.431309</v>
+        <v>112.4972</v>
       </c>
       <c r="I19">
-        <v>0.1111639324317536</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J19">
-        <v>0.07696105270890552</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06916233333333333</v>
+        <v>5.485874</v>
       </c>
       <c r="N19">
-        <v>0.207487</v>
+        <v>16.457622</v>
       </c>
       <c r="O19">
-        <v>0.0004712403375823902</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P19">
-        <v>0.0006737855263255827</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q19">
-        <v>0.9140255017471666</v>
+        <v>205.7151548509333</v>
       </c>
       <c r="R19">
-        <v>5.484153010482999</v>
+        <v>1851.4363936584</v>
       </c>
       <c r="S19">
-        <v>5.238492904612557E-05</v>
+        <v>0.03167478011516279</v>
       </c>
       <c r="T19">
-        <v>5.185524340604082E-05</v>
+        <v>0.04553318916933066</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2156545</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H20">
-        <v>26.431309</v>
+        <v>112.4972</v>
       </c>
       <c r="I20">
-        <v>0.1111639324317536</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J20">
-        <v>0.07696105270890552</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.35754</v>
+        <v>42.038395</v>
       </c>
       <c r="N20">
-        <v>264.71508</v>
+        <v>84.07679</v>
       </c>
       <c r="O20">
-        <v>0.9018234178214739</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P20">
-        <v>0.8596258536877913</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q20">
-        <v>1749.19151910993</v>
+        <v>1576.400576664667</v>
       </c>
       <c r="R20">
-        <v>6996.76607643972</v>
+        <v>9458.403459988001</v>
       </c>
       <c r="S20">
-        <v>0.1002502374840794</v>
+        <v>0.2427246630198504</v>
       </c>
       <c r="T20">
-        <v>0.06615771063560401</v>
+        <v>0.2326146744541884</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>37.49906666666667</v>
+      </c>
+      <c r="H21">
+        <v>112.4972</v>
+      </c>
+      <c r="I21">
+        <v>0.2909830802836222</v>
+      </c>
+      <c r="J21">
+        <v>0.3019872047225811</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.2156545</v>
-      </c>
-      <c r="H21">
-        <v>26.431309</v>
-      </c>
-      <c r="I21">
-        <v>0.1111639324317536</v>
-      </c>
-      <c r="J21">
-        <v>0.07696105270890552</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.03413666666666666</v>
+        <v>0.067261</v>
       </c>
       <c r="N21">
-        <v>0.10241</v>
+        <v>0.201783</v>
       </c>
       <c r="O21">
-        <v>0.0002325915501781441</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P21">
-        <v>0.000332562405119371</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q21">
-        <v>0.4511383924483333</v>
+        <v>2.522224723066667</v>
       </c>
       <c r="R21">
-        <v>2.70683035469</v>
+        <v>22.7000225076</v>
       </c>
       <c r="S21">
-        <v>2.585579136820003E-05</v>
+        <v>0.0003883569665154475</v>
       </c>
       <c r="T21">
-        <v>2.55943527893923E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>34.916151</v>
-      </c>
-      <c r="H22">
-        <v>104.748453</v>
-      </c>
-      <c r="I22">
-        <v>0.2936984052163973</v>
-      </c>
-      <c r="J22">
-        <v>0.3050000744385877</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N22">
-        <v>26.459605</v>
-      </c>
-      <c r="O22">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P22">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q22">
-        <v>307.955854526785</v>
-      </c>
-      <c r="R22">
-        <v>2771.602690741065</v>
-      </c>
-      <c r="S22">
-        <v>0.01764966683958783</v>
-      </c>
-      <c r="T22">
-        <v>0.02620680565959587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>34.916151</v>
-      </c>
-      <c r="H23">
-        <v>104.748453</v>
-      </c>
-      <c r="I23">
-        <v>0.2936984052163973</v>
-      </c>
-      <c r="J23">
-        <v>0.3050000744385877</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.485874</v>
-      </c>
-      <c r="N23">
-        <v>16.457622</v>
-      </c>
-      <c r="O23">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P23">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q23">
-        <v>191.545604950974</v>
-      </c>
-      <c r="R23">
-        <v>1723.910444558766</v>
-      </c>
-      <c r="S23">
-        <v>0.01097792447286614</v>
-      </c>
-      <c r="T23">
-        <v>0.01630038322087913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>34.916151</v>
-      </c>
-      <c r="H24">
-        <v>104.748453</v>
-      </c>
-      <c r="I24">
-        <v>0.2936984052163973</v>
-      </c>
-      <c r="J24">
-        <v>0.3050000744385877</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.207487</v>
-      </c>
-      <c r="O24">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P24">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q24">
-        <v>2.414882474179</v>
-      </c>
-      <c r="R24">
-        <v>21.733942267611</v>
-      </c>
-      <c r="S24">
-        <v>0.0001384025356215847</v>
-      </c>
-      <c r="T24">
-        <v>0.0002055046356849457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>34.916151</v>
-      </c>
-      <c r="H25">
-        <v>104.748453</v>
-      </c>
-      <c r="I25">
-        <v>0.2936984052163973</v>
-      </c>
-      <c r="J25">
-        <v>0.3050000744385877</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>132.35754</v>
-      </c>
-      <c r="N25">
-        <v>264.71508</v>
-      </c>
-      <c r="O25">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P25">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q25">
-        <v>4621.41585262854</v>
-      </c>
-      <c r="R25">
-        <v>27728.49511577124</v>
-      </c>
-      <c r="S25">
-        <v>0.2648640996009676</v>
-      </c>
-      <c r="T25">
-        <v>0.2621859493641108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>34.916151</v>
-      </c>
-      <c r="H26">
-        <v>104.748453</v>
-      </c>
-      <c r="I26">
-        <v>0.2936984052163973</v>
-      </c>
-      <c r="J26">
-        <v>0.3050000744385877</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.10241</v>
-      </c>
-      <c r="O26">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P26">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q26">
-        <v>1.19192100797</v>
-      </c>
-      <c r="R26">
-        <v>10.72728907173</v>
-      </c>
-      <c r="S26">
-        <v>6.831176735413057E-05</v>
-      </c>
-      <c r="T26">
-        <v>0.0001014315583168839</v>
+        <v>0.0005582716330557992</v>
       </c>
     </row>
   </sheetData>
